--- a/template_task.xlsx
+++ b/template_task.xlsx
@@ -68,15 +68,6 @@
     <t>LỘC</t>
   </si>
   <si>
-    <t>01/11/2022</t>
-  </si>
-  <si>
-    <t>02/12/2022</t>
-  </si>
-  <si>
-    <t>01/12/2022</t>
-  </si>
-  <si>
     <t>components - layouts - adminLayout -  AdminLayout.tsx</t>
   </si>
   <si>
@@ -180,6 +171,15 @@
   </si>
   <si>
     <t>pages - thongTinCaNhan - PopupCapNhatHoSo.tsx</t>
+  </si>
+  <si>
+    <t>25/10/2022</t>
+  </si>
+  <si>
+    <t>28/11/2022</t>
+  </si>
+  <si>
+    <t>29/11/2022</t>
   </si>
 </sst>
 </file>
@@ -779,7 +779,7 @@
   <dimension ref="A1:J36"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5546875" defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
@@ -832,13 +832,13 @@
     </row>
     <row r="2" spans="1:10" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>12</v>
+        <v>47</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>14</v>
+        <v>48</v>
       </c>
       <c r="D2" s="9">
         <v>1</v>
@@ -847,10 +847,10 @@
         <v>9</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>13</v>
+        <v>49</v>
       </c>
       <c r="G2" s="8" t="s">
-        <v>13</v>
+        <v>49</v>
       </c>
       <c r="H2" s="9">
         <v>1</v>
@@ -862,13 +862,13 @@
     </row>
     <row r="3" spans="1:10" ht="16.25" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>12</v>
+        <v>47</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>14</v>
+        <v>48</v>
       </c>
       <c r="D3" s="9">
         <v>1</v>
@@ -877,10 +877,10 @@
         <v>9</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>13</v>
+        <v>49</v>
       </c>
       <c r="G3" s="8" t="s">
-        <v>13</v>
+        <v>49</v>
       </c>
       <c r="H3" s="9">
         <v>1</v>
@@ -890,13 +890,13 @@
     </row>
     <row r="4" spans="1:10" ht="16.25" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>12</v>
+        <v>47</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>14</v>
+        <v>48</v>
       </c>
       <c r="D4" s="9">
         <v>1</v>
@@ -905,10 +905,10 @@
         <v>9</v>
       </c>
       <c r="F4" s="8" t="s">
-        <v>13</v>
+        <v>49</v>
       </c>
       <c r="G4" s="8" t="s">
-        <v>13</v>
+        <v>49</v>
       </c>
       <c r="H4" s="9">
         <v>1</v>
@@ -918,13 +918,13 @@
     </row>
     <row r="5" spans="1:10" ht="16.25" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>12</v>
+        <v>47</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>14</v>
+        <v>48</v>
       </c>
       <c r="D5" s="9">
         <v>1</v>
@@ -933,10 +933,10 @@
         <v>9</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>13</v>
+        <v>49</v>
       </c>
       <c r="G5" s="8" t="s">
-        <v>13</v>
+        <v>49</v>
       </c>
       <c r="H5" s="9">
         <v>1</v>
@@ -946,13 +946,13 @@
     </row>
     <row r="6" spans="1:10" ht="16.25" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>12</v>
+        <v>47</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>14</v>
+        <v>48</v>
       </c>
       <c r="D6" s="9">
         <v>1</v>
@@ -961,10 +961,10 @@
         <v>11</v>
       </c>
       <c r="F6" s="8" t="s">
-        <v>13</v>
+        <v>49</v>
       </c>
       <c r="G6" s="8" t="s">
-        <v>13</v>
+        <v>49</v>
       </c>
       <c r="H6" s="9">
         <v>1</v>
@@ -974,13 +974,13 @@
     </row>
     <row r="7" spans="1:10" ht="16.25" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>12</v>
+        <v>47</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>14</v>
+        <v>48</v>
       </c>
       <c r="D7" s="9">
         <v>1</v>
@@ -989,10 +989,10 @@
         <v>11</v>
       </c>
       <c r="F7" s="8" t="s">
-        <v>13</v>
+        <v>49</v>
       </c>
       <c r="G7" s="8" t="s">
-        <v>13</v>
+        <v>49</v>
       </c>
       <c r="H7" s="9">
         <v>1</v>
@@ -1002,13 +1002,13 @@
     </row>
     <row r="8" spans="1:10" ht="16.25" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>12</v>
+        <v>47</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>14</v>
+        <v>48</v>
       </c>
       <c r="D8" s="9">
         <v>1</v>
@@ -1017,10 +1017,10 @@
         <v>11</v>
       </c>
       <c r="F8" s="8" t="s">
-        <v>13</v>
+        <v>49</v>
       </c>
       <c r="G8" s="8" t="s">
-        <v>13</v>
+        <v>49</v>
       </c>
       <c r="H8" s="9">
         <v>1</v>
@@ -1030,13 +1030,13 @@
     </row>
     <row r="9" spans="1:10" ht="16.25" x14ac:dyDescent="0.3">
       <c r="A9" s="7" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>12</v>
+        <v>47</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>14</v>
+        <v>48</v>
       </c>
       <c r="D9" s="9">
         <v>1</v>
@@ -1045,10 +1045,10 @@
         <v>11</v>
       </c>
       <c r="F9" s="8" t="s">
-        <v>13</v>
+        <v>49</v>
       </c>
       <c r="G9" s="8" t="s">
-        <v>13</v>
+        <v>49</v>
       </c>
       <c r="H9" s="9">
         <v>1</v>
@@ -1058,13 +1058,13 @@
     </row>
     <row r="10" spans="1:10" ht="16.25" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>12</v>
+        <v>47</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>14</v>
+        <v>48</v>
       </c>
       <c r="D10" s="9">
         <v>1</v>
@@ -1073,10 +1073,10 @@
         <v>9</v>
       </c>
       <c r="F10" s="8" t="s">
-        <v>13</v>
+        <v>49</v>
       </c>
       <c r="G10" s="8" t="s">
-        <v>13</v>
+        <v>49</v>
       </c>
       <c r="H10" s="9">
         <v>1</v>
@@ -1086,13 +1086,13 @@
     </row>
     <row r="11" spans="1:10" ht="16.25" x14ac:dyDescent="0.3">
       <c r="A11" s="7" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>12</v>
+        <v>47</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>14</v>
+        <v>48</v>
       </c>
       <c r="D11" s="9">
         <v>1</v>
@@ -1101,10 +1101,10 @@
         <v>9</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>13</v>
+        <v>49</v>
       </c>
       <c r="G11" s="8" t="s">
-        <v>13</v>
+        <v>49</v>
       </c>
       <c r="H11" s="9">
         <v>1</v>
@@ -1114,13 +1114,13 @@
     </row>
     <row r="12" spans="1:10" ht="16.25" x14ac:dyDescent="0.3">
       <c r="A12" s="7" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>12</v>
+        <v>47</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>14</v>
+        <v>48</v>
       </c>
       <c r="D12" s="9">
         <v>1</v>
@@ -1129,10 +1129,10 @@
         <v>9</v>
       </c>
       <c r="F12" s="8" t="s">
-        <v>13</v>
+        <v>49</v>
       </c>
       <c r="G12" s="8" t="s">
-        <v>13</v>
+        <v>49</v>
       </c>
       <c r="H12" s="9">
         <v>1</v>
@@ -1142,13 +1142,13 @@
     </row>
     <row r="13" spans="1:10" ht="16.25" x14ac:dyDescent="0.3">
       <c r="A13" s="7" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>12</v>
+        <v>47</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>14</v>
+        <v>48</v>
       </c>
       <c r="D13" s="9">
         <v>1</v>
@@ -1157,10 +1157,10 @@
         <v>11</v>
       </c>
       <c r="F13" s="8" t="s">
-        <v>13</v>
+        <v>49</v>
       </c>
       <c r="G13" s="8" t="s">
-        <v>13</v>
+        <v>49</v>
       </c>
       <c r="H13" s="9">
         <v>1</v>
@@ -1170,13 +1170,13 @@
     </row>
     <row r="14" spans="1:10" ht="16.25" x14ac:dyDescent="0.3">
       <c r="A14" s="7" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>12</v>
+        <v>47</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>14</v>
+        <v>48</v>
       </c>
       <c r="D14" s="9">
         <v>1</v>
@@ -1185,10 +1185,10 @@
         <v>11</v>
       </c>
       <c r="F14" s="8" t="s">
-        <v>13</v>
+        <v>49</v>
       </c>
       <c r="G14" s="8" t="s">
-        <v>13</v>
+        <v>49</v>
       </c>
       <c r="H14" s="9">
         <v>1</v>
@@ -1198,13 +1198,13 @@
     </row>
     <row r="15" spans="1:10" ht="16.25" x14ac:dyDescent="0.3">
       <c r="A15" s="7" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>12</v>
+        <v>47</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>14</v>
+        <v>48</v>
       </c>
       <c r="D15" s="9">
         <v>1</v>
@@ -1213,10 +1213,10 @@
         <v>11</v>
       </c>
       <c r="F15" s="8" t="s">
-        <v>13</v>
+        <v>49</v>
       </c>
       <c r="G15" s="8" t="s">
-        <v>13</v>
+        <v>49</v>
       </c>
       <c r="H15" s="9">
         <v>1</v>
@@ -1226,13 +1226,13 @@
     </row>
     <row r="16" spans="1:10" ht="16.25" x14ac:dyDescent="0.3">
       <c r="A16" s="7" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>12</v>
+        <v>47</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>14</v>
+        <v>48</v>
       </c>
       <c r="D16" s="9">
         <v>1</v>
@@ -1241,10 +1241,10 @@
         <v>9</v>
       </c>
       <c r="F16" s="8" t="s">
-        <v>13</v>
+        <v>49</v>
       </c>
       <c r="G16" s="8" t="s">
-        <v>13</v>
+        <v>49</v>
       </c>
       <c r="H16" s="9">
         <v>1</v>
@@ -1254,13 +1254,13 @@
     </row>
     <row r="17" spans="1:10" ht="16.25" x14ac:dyDescent="0.3">
       <c r="A17" s="7" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>12</v>
+        <v>47</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>14</v>
+        <v>48</v>
       </c>
       <c r="D17" s="9">
         <v>1</v>
@@ -1269,10 +1269,10 @@
         <v>9</v>
       </c>
       <c r="F17" s="8" t="s">
-        <v>13</v>
+        <v>49</v>
       </c>
       <c r="G17" s="8" t="s">
-        <v>13</v>
+        <v>49</v>
       </c>
       <c r="H17" s="9">
         <v>1</v>
@@ -1282,13 +1282,13 @@
     </row>
     <row r="18" spans="1:10" ht="16.25" x14ac:dyDescent="0.3">
       <c r="A18" s="7" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>12</v>
+        <v>47</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>14</v>
+        <v>48</v>
       </c>
       <c r="D18" s="9">
         <v>1</v>
@@ -1297,10 +1297,10 @@
         <v>9</v>
       </c>
       <c r="F18" s="8" t="s">
-        <v>13</v>
+        <v>49</v>
       </c>
       <c r="G18" s="8" t="s">
-        <v>13</v>
+        <v>49</v>
       </c>
       <c r="H18" s="9">
         <v>1</v>
@@ -1310,13 +1310,13 @@
     </row>
     <row r="19" spans="1:10" ht="16.25" x14ac:dyDescent="0.3">
       <c r="A19" s="7" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>12</v>
+        <v>47</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>14</v>
+        <v>48</v>
       </c>
       <c r="D19" s="9">
         <v>1</v>
@@ -1325,10 +1325,10 @@
         <v>11</v>
       </c>
       <c r="F19" s="8" t="s">
-        <v>13</v>
+        <v>49</v>
       </c>
       <c r="G19" s="8" t="s">
-        <v>13</v>
+        <v>49</v>
       </c>
       <c r="H19" s="9">
         <v>1</v>
@@ -1338,13 +1338,13 @@
     </row>
     <row r="20" spans="1:10" ht="16.25" x14ac:dyDescent="0.3">
       <c r="A20" s="7" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>12</v>
+        <v>47</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>14</v>
+        <v>48</v>
       </c>
       <c r="D20" s="9">
         <v>1</v>
@@ -1353,10 +1353,10 @@
         <v>11</v>
       </c>
       <c r="F20" s="8" t="s">
-        <v>13</v>
+        <v>49</v>
       </c>
       <c r="G20" s="8" t="s">
-        <v>13</v>
+        <v>49</v>
       </c>
       <c r="H20" s="9">
         <v>1</v>
@@ -1366,13 +1366,13 @@
     </row>
     <row r="21" spans="1:10" ht="16.25" x14ac:dyDescent="0.3">
       <c r="A21" s="7" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>12</v>
+        <v>47</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>14</v>
+        <v>48</v>
       </c>
       <c r="D21" s="9">
         <v>1</v>
@@ -1381,10 +1381,10 @@
         <v>11</v>
       </c>
       <c r="F21" s="8" t="s">
-        <v>13</v>
+        <v>49</v>
       </c>
       <c r="G21" s="8" t="s">
-        <v>13</v>
+        <v>49</v>
       </c>
       <c r="H21" s="9">
         <v>1</v>
@@ -1394,13 +1394,13 @@
     </row>
     <row r="22" spans="1:10" ht="16.25" x14ac:dyDescent="0.3">
       <c r="A22" s="7" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>12</v>
+        <v>47</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>14</v>
+        <v>48</v>
       </c>
       <c r="D22" s="9">
         <v>1</v>
@@ -1409,10 +1409,10 @@
         <v>9</v>
       </c>
       <c r="F22" s="8" t="s">
-        <v>13</v>
+        <v>49</v>
       </c>
       <c r="G22" s="8" t="s">
-        <v>13</v>
+        <v>49</v>
       </c>
       <c r="H22" s="9">
         <v>1</v>
@@ -1422,13 +1422,13 @@
     </row>
     <row r="23" spans="1:10" ht="16.25" x14ac:dyDescent="0.3">
       <c r="A23" s="7" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>12</v>
+        <v>47</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>14</v>
+        <v>48</v>
       </c>
       <c r="D23" s="9">
         <v>1</v>
@@ -1437,10 +1437,10 @@
         <v>9</v>
       </c>
       <c r="F23" s="8" t="s">
-        <v>13</v>
+        <v>49</v>
       </c>
       <c r="G23" s="8" t="s">
-        <v>13</v>
+        <v>49</v>
       </c>
       <c r="H23" s="9">
         <v>1</v>
@@ -1450,13 +1450,13 @@
     </row>
     <row r="24" spans="1:10" ht="16.25" x14ac:dyDescent="0.3">
       <c r="A24" s="7" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>12</v>
+        <v>47</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>14</v>
+        <v>48</v>
       </c>
       <c r="D24" s="9">
         <v>1</v>
@@ -1465,10 +1465,10 @@
         <v>9</v>
       </c>
       <c r="F24" s="8" t="s">
-        <v>13</v>
+        <v>49</v>
       </c>
       <c r="G24" s="8" t="s">
-        <v>13</v>
+        <v>49</v>
       </c>
       <c r="H24" s="9">
         <v>1</v>
@@ -1478,13 +1478,13 @@
     </row>
     <row r="25" spans="1:10" ht="16.25" x14ac:dyDescent="0.3">
       <c r="A25" s="13" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>12</v>
+        <v>47</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>14</v>
+        <v>48</v>
       </c>
       <c r="D25" s="9">
         <v>1</v>
@@ -1493,10 +1493,10 @@
         <v>9</v>
       </c>
       <c r="F25" s="8" t="s">
-        <v>13</v>
+        <v>49</v>
       </c>
       <c r="G25" s="8" t="s">
-        <v>13</v>
+        <v>49</v>
       </c>
       <c r="H25" s="9">
         <v>1</v>
@@ -1506,13 +1506,13 @@
     </row>
     <row r="26" spans="1:10" ht="16.25" x14ac:dyDescent="0.3">
       <c r="A26" s="13" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>12</v>
+        <v>47</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>14</v>
+        <v>48</v>
       </c>
       <c r="D26" s="9">
         <v>1</v>
@@ -1521,10 +1521,10 @@
         <v>9</v>
       </c>
       <c r="F26" s="8" t="s">
-        <v>13</v>
+        <v>49</v>
       </c>
       <c r="G26" s="8" t="s">
-        <v>13</v>
+        <v>49</v>
       </c>
       <c r="H26" s="9">
         <v>1</v>
@@ -1534,13 +1534,13 @@
     </row>
     <row r="27" spans="1:10" ht="16.25" x14ac:dyDescent="0.3">
       <c r="A27" s="13" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>12</v>
+        <v>47</v>
       </c>
       <c r="C27" s="8" t="s">
-        <v>14</v>
+        <v>48</v>
       </c>
       <c r="D27" s="9">
         <v>1</v>
@@ -1549,10 +1549,10 @@
         <v>9</v>
       </c>
       <c r="F27" s="8" t="s">
-        <v>13</v>
+        <v>49</v>
       </c>
       <c r="G27" s="8" t="s">
-        <v>13</v>
+        <v>49</v>
       </c>
       <c r="H27" s="9">
         <v>1</v>
@@ -1562,13 +1562,13 @@
     </row>
     <row r="28" spans="1:10" ht="16.25" x14ac:dyDescent="0.3">
       <c r="A28" s="13" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>12</v>
+        <v>47</v>
       </c>
       <c r="C28" s="8" t="s">
-        <v>14</v>
+        <v>48</v>
       </c>
       <c r="D28" s="9">
         <v>1</v>
@@ -1577,10 +1577,10 @@
         <v>11</v>
       </c>
       <c r="F28" s="8" t="s">
-        <v>13</v>
+        <v>49</v>
       </c>
       <c r="G28" s="8" t="s">
-        <v>13</v>
+        <v>49</v>
       </c>
       <c r="H28" s="9">
         <v>1</v>
@@ -1590,13 +1590,13 @@
     </row>
     <row r="29" spans="1:10" ht="16.25" x14ac:dyDescent="0.3">
       <c r="A29" s="13" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>12</v>
+        <v>47</v>
       </c>
       <c r="C29" s="8" t="s">
-        <v>14</v>
+        <v>48</v>
       </c>
       <c r="D29" s="9">
         <v>1</v>
@@ -1605,10 +1605,10 @@
         <v>11</v>
       </c>
       <c r="F29" s="8" t="s">
-        <v>13</v>
+        <v>49</v>
       </c>
       <c r="G29" s="8" t="s">
-        <v>13</v>
+        <v>49</v>
       </c>
       <c r="H29" s="9">
         <v>1</v>
@@ -1618,13 +1618,13 @@
     </row>
     <row r="30" spans="1:10" ht="16.25" x14ac:dyDescent="0.3">
       <c r="A30" s="13" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B30" s="8" t="s">
-        <v>12</v>
+        <v>47</v>
       </c>
       <c r="C30" s="8" t="s">
-        <v>14</v>
+        <v>48</v>
       </c>
       <c r="D30" s="9">
         <v>1</v>
@@ -1633,10 +1633,10 @@
         <v>11</v>
       </c>
       <c r="F30" s="8" t="s">
-        <v>13</v>
+        <v>49</v>
       </c>
       <c r="G30" s="8" t="s">
-        <v>13</v>
+        <v>49</v>
       </c>
       <c r="H30" s="9">
         <v>1</v>
@@ -1646,13 +1646,13 @@
     </row>
     <row r="31" spans="1:10" ht="16.25" x14ac:dyDescent="0.3">
       <c r="A31" s="13" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B31" s="8" t="s">
-        <v>12</v>
+        <v>47</v>
       </c>
       <c r="C31" s="8" t="s">
-        <v>14</v>
+        <v>48</v>
       </c>
       <c r="D31" s="9">
         <v>1</v>
@@ -1661,10 +1661,10 @@
         <v>11</v>
       </c>
       <c r="F31" s="8" t="s">
-        <v>13</v>
+        <v>49</v>
       </c>
       <c r="G31" s="8" t="s">
-        <v>13</v>
+        <v>49</v>
       </c>
       <c r="H31" s="9">
         <v>1</v>
@@ -1674,13 +1674,13 @@
     </row>
     <row r="32" spans="1:10" ht="16.25" x14ac:dyDescent="0.3">
       <c r="A32" s="13" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B32" s="8" t="s">
-        <v>12</v>
+        <v>47</v>
       </c>
       <c r="C32" s="8" t="s">
-        <v>14</v>
+        <v>48</v>
       </c>
       <c r="D32" s="9">
         <v>1</v>
@@ -1689,10 +1689,10 @@
         <v>11</v>
       </c>
       <c r="F32" s="8" t="s">
-        <v>13</v>
+        <v>49</v>
       </c>
       <c r="G32" s="8" t="s">
-        <v>13</v>
+        <v>49</v>
       </c>
       <c r="H32" s="9">
         <v>1</v>
@@ -1702,13 +1702,13 @@
     </row>
     <row r="33" spans="1:10" ht="16.25" x14ac:dyDescent="0.3">
       <c r="A33" s="13" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B33" s="8" t="s">
-        <v>12</v>
+        <v>47</v>
       </c>
       <c r="C33" s="8" t="s">
-        <v>14</v>
+        <v>48</v>
       </c>
       <c r="D33" s="9">
         <v>1</v>
@@ -1717,10 +1717,10 @@
         <v>9</v>
       </c>
       <c r="F33" s="8" t="s">
-        <v>13</v>
+        <v>49</v>
       </c>
       <c r="G33" s="8" t="s">
-        <v>13</v>
+        <v>49</v>
       </c>
       <c r="H33" s="9">
         <v>1</v>
@@ -1730,13 +1730,13 @@
     </row>
     <row r="34" spans="1:10" ht="16.25" x14ac:dyDescent="0.3">
       <c r="A34" s="13" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B34" s="8" t="s">
-        <v>12</v>
+        <v>47</v>
       </c>
       <c r="C34" s="8" t="s">
-        <v>14</v>
+        <v>48</v>
       </c>
       <c r="D34" s="9">
         <v>1</v>
@@ -1745,10 +1745,10 @@
         <v>9</v>
       </c>
       <c r="F34" s="8" t="s">
-        <v>13</v>
+        <v>49</v>
       </c>
       <c r="G34" s="8" t="s">
-        <v>13</v>
+        <v>49</v>
       </c>
       <c r="H34" s="9">
         <v>1</v>
@@ -1758,13 +1758,13 @@
     </row>
     <row r="35" spans="1:10" ht="16.25" x14ac:dyDescent="0.3">
       <c r="A35" s="13" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B35" s="8" t="s">
-        <v>12</v>
+        <v>47</v>
       </c>
       <c r="C35" s="8" t="s">
-        <v>14</v>
+        <v>48</v>
       </c>
       <c r="D35" s="9">
         <v>1</v>
@@ -1773,10 +1773,10 @@
         <v>9</v>
       </c>
       <c r="F35" s="8" t="s">
-        <v>13</v>
+        <v>49</v>
       </c>
       <c r="G35" s="8" t="s">
-        <v>13</v>
+        <v>49</v>
       </c>
       <c r="H35" s="9">
         <v>1</v>
@@ -1786,13 +1786,13 @@
     </row>
     <row r="36" spans="1:10" ht="16.25" x14ac:dyDescent="0.3">
       <c r="A36" s="13" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B36" s="8" t="s">
-        <v>12</v>
+        <v>47</v>
       </c>
       <c r="C36" s="8" t="s">
-        <v>14</v>
+        <v>48</v>
       </c>
       <c r="D36" s="9">
         <v>1</v>
@@ -1801,10 +1801,10 @@
         <v>9</v>
       </c>
       <c r="F36" s="8" t="s">
-        <v>13</v>
+        <v>49</v>
       </c>
       <c r="G36" s="8" t="s">
-        <v>13</v>
+        <v>49</v>
       </c>
       <c r="H36" s="9">
         <v>1</v>
